--- a/uploads/default/invoice.xlsx
+++ b/uploads/default/invoice.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/sites/bo/uploads/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>发票号</t>
     <rPh sb="0" eb="1">
@@ -181,6 +181,31 @@
       <t>shuo'm</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一列可以留空、但不能删除</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'yi'lie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shan'chu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -229,7 +254,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,20 +317,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,6 +334,19 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -593,43 +628,44 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -637,66 +673,69 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>1777501.6</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <v>5.9999994871453299E-2</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>33000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>5.999984581820425E-2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
